--- a/Docs/production-deployment/example/example-2/rules/Main.xlsx
+++ b/Docs/production-deployment/example/example-2/rules/Main.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aromashko/genesis/src/openl-tablets/Docs/production-deployment/example/example-2/rules/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9A71DE-2FB5-AA4E-9CDA-0D687698B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19635" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>SimpleRules String Ping()</t>
   </si>
@@ -25,56 +31,53 @@
     <t>RETURN</t>
   </si>
   <si>
-    <t>SimpleRules String Ping2()</t>
+    <t>Pong</t>
   </si>
   <si>
-    <t>Pong</t>
+    <t>SimpleRules String SupportOperation()</t>
+  </si>
+  <si>
+    <t>Support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="&quot;Franklin Gothik Book&quot;"/>
-      <sz val="10.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-      <u val="none"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="&quot;Franklin Gothik Book&quot;"/>
-      <sz val="10.0"/>
-      <color indexed="8"/>
-      <u val="none"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000001"/>
       <name val="&quot;Franklin Gothik Book&quot;"/>
-      <sz val="10.0"/>
-      <color rgb="FF000001"/>
-      <u val="none"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="&quot;Franklin Gothik Book&quot;"/>
-      <sz val="10.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-      <u val="none"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="&quot;Franklin Gothik Book&quot;"/>
-      <sz val="10.0"/>
-      <color indexed="8"/>
-      <u val="none"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,37 +85,22 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAD246"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD246"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FAD246"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="D9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFE"/>
+        <fgColor rgb="FFFFFFFE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,277 +109,61 @@
       <diagonal/>
     </border>
     <border>
-      <top>
-        <color rgb="000000"/>
-      </top>
-    </border>
-    <border>
-      <right>
-        <color rgb="000000"/>
-      </right>
-      <top>
-        <color rgb="000000"/>
-      </top>
-    </border>
-    <border>
-      <right>
-        <color rgb="000000"/>
-      </right>
-      <top>
-        <color rgb="000000"/>
-      </top>
-      <bottom>
-        <color rgb="FFC91D"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFC91D"/>
       </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <right>
-        <color rgb="000000"/>
-      </right>
-      <top>
-        <color rgb="000000"/>
-      </top>
-      <bottom>
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <right>
-        <color rgb="000000"/>
-      </right>
-      <bottom>
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <bottom>
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <bottom style="thick">
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <top>
-        <color rgb="DDDDDD"/>
-      </top>
-    </border>
-    <border>
-      <right>
-        <color rgb="DDDDDD"/>
-      </right>
-      <top>
-        <color rgb="DDDDDD"/>
-      </top>
-    </border>
-    <border>
-      <right>
-        <color rgb="DDDDDD"/>
-      </right>
-      <top>
-        <color rgb="DDDDDD"/>
-      </top>
-      <bottom>
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="DDDDDD"/>
-      </left>
-      <right>
-        <color rgb="DDDDDD"/>
-      </right>
-      <top>
-        <color rgb="DDDDDD"/>
-      </top>
-      <bottom>
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="DDDDDD"/>
-      </left>
-      <right>
-        <color rgb="DDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="DDDDDD"/>
-      </top>
-      <bottom>
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="DDDDDD"/>
-      </left>
-      <right style="thin">
-        <color rgb="DDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="DDDDDD"/>
-      </top>
-      <bottom>
-        <color rgb="FFC91D"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="DDDDDD"/>
-      </left>
-      <right style="thin">
-        <color rgb="DDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="DDDDDD"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFC91D"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
-        <color rgb="DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFC91D"/>
+        <color rgb="FFFFC91D"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top>
-        <color rgb="000001"/>
-      </top>
-    </border>
-    <border>
-      <right>
-        <color rgb="000000"/>
-      </right>
-      <top>
-        <color rgb="000001"/>
-      </top>
-    </border>
-    <border>
-      <right>
-        <color rgb="000000"/>
-      </right>
-      <top>
-        <color rgb="000001"/>
-      </top>
-      <bottom>
-        <color rgb="000001"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <right>
-        <color rgb="000000"/>
-      </right>
-      <top>
-        <color rgb="000001"/>
-      </top>
-      <bottom>
-        <color rgb="000001"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <right>
-        <color rgb="000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="000001"/>
-      </top>
-      <bottom>
-        <color rgb="000001"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="000001"/>
-      </top>
-      <bottom>
-        <color rgb="000001"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="000001"/>
+        <color rgb="FF000001"/>
       </top>
       <bottom style="thin">
-        <color rgb="000001"/>
+        <color rgb="FF000001"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="000001"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000001"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +174,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -447,7 +222,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -519,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -692,41 +467,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="2"/>
-    <row r="3">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="s" s="2">
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="9">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="s" s="5">
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="6">
+    <row r="11" spans="2:2">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="14" thickTop="1"/>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="2:2" ht="14" thickBot="1">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="15" thickTop="1" thickBot="1">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="14" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
